--- a/Dados/28-jun.xlsx
+++ b/Dados/28-jun.xlsx
@@ -4767,7 +4767,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B339" t="n">
